--- a/veri.xlsx
+++ b/veri.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$G$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sayfa1!$A$1:$G$201</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="118">
   <si>
     <t>Sıra No</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Ersin Yavuzarslan</t>
   </si>
   <si>
-    <t>BVDV Ag ELISA</t>
-  </si>
-  <si>
-    <t>BVDV Ab ELISA</t>
-  </si>
-  <si>
     <t>IBR Ab ELISA</t>
   </si>
   <si>
@@ -252,9 +246,6 @@
     <t>BVDV PCR</t>
   </si>
   <si>
-    <t>BVDV Total Ab</t>
-  </si>
-  <si>
     <t>M.Bovis PCR</t>
   </si>
   <si>
@@ -276,15 +267,9 @@
     <t>Mycoplasma Ovis PCR</t>
   </si>
   <si>
-    <t>Brucella ELISA Ab ovine/caprine</t>
-  </si>
-  <si>
     <t>IBR Ab</t>
   </si>
   <si>
-    <t>TB Feron</t>
-  </si>
-  <si>
     <t>Brucella Ab (caprine/ovine)</t>
   </si>
   <si>
@@ -388,6 +373,9 @@
   </si>
   <si>
     <t>Numune adedi (işlenen numune)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BVDV Ab </t>
   </si>
 </sst>
 </file>
@@ -539,6 +527,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,9 +559,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +843,8 @@
   <dimension ref="A1:G610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,13 +872,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -923,12 +911,12 @@
       <c r="C3" s="8">
         <v>46027</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="4">
         <v>37</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -941,12 +929,12 @@
       <c r="C4" s="8">
         <v>46027</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4">
         <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -959,12 +947,12 @@
       <c r="C5" s="8">
         <v>46027</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="4">
         <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -977,12 +965,12 @@
       <c r="C6" s="8">
         <v>46027</v>
       </c>
-      <c r="D6" s="22"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="4">
         <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +990,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1015,12 +1003,12 @@
       <c r="C8" s="8">
         <v>46029</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="4">
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,12 +1021,12 @@
       <c r="C9" s="8">
         <v>46029</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,12 +1039,12 @@
       <c r="C10" s="8">
         <v>46029</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1069,12 +1057,12 @@
       <c r="C11" s="8">
         <v>46029</v>
       </c>
-      <c r="D11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="4">
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,12 +1095,12 @@
       <c r="C13" s="8">
         <v>46030</v>
       </c>
-      <c r="D13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="4">
         <v>2</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,7 +1120,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1152,7 +1140,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,12 +1153,12 @@
       <c r="C16" s="8">
         <v>46031</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="4">
         <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,12 +1171,12 @@
       <c r="C17" s="8">
         <v>46031</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="4">
         <v>21</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1201,12 +1189,12 @@
       <c r="C18" s="8">
         <v>46031</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="22"/>
       <c r="E18" s="4">
         <v>21</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,12 +1207,12 @@
       <c r="C19" s="8">
         <v>46031</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="4">
         <v>1</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1244,7 +1232,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,12 +1245,12 @@
       <c r="C21" s="8">
         <v>46031</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="4">
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,12 +1263,12 @@
       <c r="C22" s="8">
         <v>46031</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="4">
         <v>1</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,12 +1281,12 @@
       <c r="C23" s="8">
         <v>46031</v>
       </c>
-      <c r="D23" s="22"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="4">
         <v>1</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1318,7 +1306,7 @@
         <v>125</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1338,7 +1326,7 @@
         <v>125</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1358,7 +1346,7 @@
         <v>125</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1376,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1396,7 +1384,7 @@
         <v>186</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1416,7 +1404,7 @@
         <v>274</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,7 +1424,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1456,7 +1444,7 @@
         <v>1789</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,12 +1457,12 @@
       <c r="C32" s="8">
         <v>46035</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="4">
         <v>1789</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1487,12 +1475,12 @@
       <c r="C33" s="8">
         <v>46035</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="23"/>
       <c r="E33" s="4">
         <v>1789</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1512,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1532,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1552,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1565,12 +1553,12 @@
       <c r="C37" s="8">
         <v>46042</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="4">
         <v>1</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,12 +1571,12 @@
       <c r="C38" s="8">
         <v>46042</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="4">
         <v>1</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1601,12 +1589,12 @@
       <c r="C39" s="8">
         <v>46042</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,12 +1607,12 @@
       <c r="C40" s="8">
         <v>46042</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="4">
         <v>7</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1637,12 +1625,12 @@
       <c r="C41" s="8">
         <v>46042</v>
       </c>
-      <c r="D41" s="22"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="4">
         <v>2</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1662,7 +1650,7 @@
         <v>39</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1702,7 +1690,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,12 +1703,12 @@
       <c r="C45" s="8">
         <v>46042</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="4">
         <v>2</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1733,12 +1721,12 @@
       <c r="C46" s="8">
         <v>46042</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="4">
         <v>2</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1751,12 +1739,12 @@
       <c r="C47" s="8">
         <v>46042</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="4">
         <v>2</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,12 +1757,12 @@
       <c r="C48" s="8">
         <v>46042</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="4">
         <v>2</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1787,12 +1775,12 @@
       <c r="C49" s="8">
         <v>46042</v>
       </c>
-      <c r="D49" s="22"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="4">
         <v>2</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1805,14 +1793,14 @@
       <c r="C50" s="8">
         <v>46043</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="24">
         <v>21</v>
       </c>
       <c r="E50" s="4">
         <v>21</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1825,12 +1813,12 @@
       <c r="C51" s="8">
         <v>46043</v>
       </c>
-      <c r="D51" s="25"/>
+      <c r="D51" s="26"/>
       <c r="E51" s="4">
         <v>21</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1866,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1879,14 +1867,14 @@
       <c r="C54" s="8">
         <v>46044</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="24">
         <v>11</v>
       </c>
       <c r="E54" s="4">
         <v>10</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,12 +1887,12 @@
       <c r="C55" s="8">
         <v>46044</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="25"/>
       <c r="E55" s="4">
         <v>10</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1917,12 +1905,12 @@
       <c r="C56" s="8">
         <v>46044</v>
       </c>
-      <c r="D56" s="24"/>
+      <c r="D56" s="25"/>
       <c r="E56" s="4">
         <v>10</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,10 +1923,10 @@
       <c r="C57" s="8">
         <v>46044</v>
       </c>
-      <c r="D57" s="24"/>
+      <c r="D57" s="25"/>
       <c r="E57" s="4"/>
       <c r="F57" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1951,12 +1939,12 @@
       <c r="C58" s="8">
         <v>46044</v>
       </c>
-      <c r="D58" s="25"/>
+      <c r="D58" s="26"/>
       <c r="E58" s="4">
         <v>1</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1969,14 +1957,14 @@
       <c r="C59" s="8">
         <v>46041</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="24">
         <v>1</v>
       </c>
       <c r="E59" s="4">
         <v>1</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1989,12 +1977,12 @@
       <c r="C60" s="8">
         <v>46041</v>
       </c>
-      <c r="D60" s="24"/>
+      <c r="D60" s="25"/>
       <c r="E60" s="4">
         <v>1</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2007,12 +1995,12 @@
       <c r="C61" s="8">
         <v>46041</v>
       </c>
-      <c r="D61" s="25"/>
+      <c r="D61" s="26"/>
       <c r="E61" s="4">
         <v>1</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2032,7 +2020,7 @@
         <v>3</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,7 +2040,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2065,12 +2053,12 @@
       <c r="C64" s="8">
         <v>46049</v>
       </c>
-      <c r="D64" s="26"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="4">
         <v>13</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2083,12 +2071,12 @@
       <c r="C65" s="8">
         <v>46049</v>
       </c>
-      <c r="D65" s="26"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="4">
         <v>13</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2101,12 +2089,12 @@
       <c r="C66" s="8">
         <v>46049</v>
       </c>
-      <c r="D66" s="26"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="4">
         <v>13</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2119,12 +2107,12 @@
       <c r="C67" s="8">
         <v>46049</v>
       </c>
-      <c r="D67" s="26"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="4">
         <v>13</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,12 +2125,12 @@
       <c r="C68" s="8">
         <v>46049</v>
       </c>
-      <c r="D68" s="22"/>
+      <c r="D68" s="23"/>
       <c r="E68" s="4">
         <v>13</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2162,7 +2150,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,12 +2163,12 @@
       <c r="C70" s="8">
         <v>46050</v>
       </c>
-      <c r="D70" s="26"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="4">
         <v>10</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,12 +2181,12 @@
       <c r="C71" s="8">
         <v>46050</v>
       </c>
-      <c r="D71" s="22"/>
+      <c r="D71" s="23"/>
       <c r="E71" s="4">
         <v>10</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,7 +2206,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2231,12 +2219,12 @@
       <c r="C73" s="8">
         <v>46050</v>
       </c>
-      <c r="D73" s="26"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="4">
         <v>14</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2249,12 +2237,12 @@
       <c r="C74" s="8">
         <v>46050</v>
       </c>
-      <c r="D74" s="22"/>
+      <c r="D74" s="23"/>
       <c r="E74" s="4">
         <v>14</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2267,14 +2255,14 @@
       <c r="C75" s="8">
         <v>46051</v>
       </c>
-      <c r="D75" s="23">
+      <c r="D75" s="24">
         <v>8</v>
       </c>
       <c r="E75" s="4">
         <v>8</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2287,12 +2275,12 @@
       <c r="C76" s="8">
         <v>46051</v>
       </c>
-      <c r="D76" s="25"/>
+      <c r="D76" s="26"/>
       <c r="E76" s="4">
         <v>8</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2305,14 +2293,14 @@
       <c r="C77" s="8">
         <v>46051</v>
       </c>
-      <c r="D77" s="23">
+      <c r="D77" s="24">
         <v>27</v>
       </c>
       <c r="E77" s="4">
         <v>27</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2325,12 +2313,12 @@
       <c r="C78" s="8">
         <v>46051</v>
       </c>
-      <c r="D78" s="24"/>
+      <c r="D78" s="25"/>
       <c r="E78" s="4">
         <v>27</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2343,12 +2331,12 @@
       <c r="C79" s="8">
         <v>46051</v>
       </c>
-      <c r="D79" s="25"/>
+      <c r="D79" s="26"/>
       <c r="E79" s="4">
         <v>27</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2361,14 +2349,14 @@
       <c r="C80" s="8">
         <v>46051</v>
       </c>
-      <c r="D80" s="23">
+      <c r="D80" s="24">
         <v>5</v>
       </c>
       <c r="E80" s="4">
         <v>5</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,12 +2369,12 @@
       <c r="C81" s="8">
         <v>46051</v>
       </c>
-      <c r="D81" s="25"/>
+      <c r="D81" s="26"/>
       <c r="E81" s="4">
         <v>5</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2406,7 +2394,7 @@
         <v>25</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2419,12 +2407,12 @@
       <c r="C83" s="8">
         <v>46052</v>
       </c>
-      <c r="D83" s="26"/>
+      <c r="D83" s="22"/>
       <c r="E83" s="4">
         <v>25</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2437,12 +2425,12 @@
       <c r="C84" s="8">
         <v>46052</v>
       </c>
-      <c r="D84" s="26"/>
+      <c r="D84" s="22"/>
       <c r="E84" s="4">
         <v>25</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,12 +2443,12 @@
       <c r="C85" s="8">
         <v>46052</v>
       </c>
-      <c r="D85" s="26"/>
+      <c r="D85" s="22"/>
       <c r="E85" s="4">
         <v>25</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2473,12 +2461,12 @@
       <c r="C86" s="8">
         <v>46052</v>
       </c>
-      <c r="D86" s="26"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="4">
         <v>25</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2491,12 +2479,12 @@
       <c r="C87" s="8">
         <v>46052</v>
       </c>
-      <c r="D87" s="26"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="4">
         <v>25</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2509,12 +2497,12 @@
       <c r="C88" s="8">
         <v>46052</v>
       </c>
-      <c r="D88" s="26"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="4">
         <v>25</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2527,12 +2515,12 @@
       <c r="C89" s="8">
         <v>46052</v>
       </c>
-      <c r="D89" s="26"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="4">
         <v>25</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2545,12 +2533,12 @@
       <c r="C90" s="8">
         <v>46052</v>
       </c>
-      <c r="D90" s="26"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="4">
         <v>25</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2563,12 +2551,12 @@
       <c r="C91" s="8">
         <v>46052</v>
       </c>
-      <c r="D91" s="22"/>
+      <c r="D91" s="23"/>
       <c r="E91" s="4">
         <v>25</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -2588,7 +2576,7 @@
         <v>17</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2601,12 +2589,12 @@
       <c r="C93" s="8">
         <v>46055</v>
       </c>
-      <c r="D93" s="26"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="4">
         <v>17</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2619,12 +2607,12 @@
       <c r="C94" s="8">
         <v>46055</v>
       </c>
-      <c r="D94" s="26"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="4">
         <v>17</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2637,12 +2625,12 @@
       <c r="C95" s="8">
         <v>46055</v>
       </c>
-      <c r="D95" s="22"/>
+      <c r="D95" s="23"/>
       <c r="E95" s="4">
         <v>17</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,14 +2643,14 @@
       <c r="C96" s="8">
         <v>46055</v>
       </c>
-      <c r="D96" s="23">
+      <c r="D96" s="24">
         <v>51</v>
       </c>
       <c r="E96" s="4">
         <v>51</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,12 +2663,12 @@
       <c r="C97" s="8">
         <v>46055</v>
       </c>
-      <c r="D97" s="24"/>
+      <c r="D97" s="25"/>
       <c r="E97" s="4">
         <v>51</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2693,12 +2681,12 @@
       <c r="C98" s="8">
         <v>46055</v>
       </c>
-      <c r="D98" s="25"/>
+      <c r="D98" s="26"/>
       <c r="E98" s="4">
         <v>51</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2711,14 +2699,14 @@
       <c r="C99" s="8">
         <v>46055</v>
       </c>
-      <c r="D99" s="23">
+      <c r="D99" s="24">
         <v>78</v>
       </c>
       <c r="E99" s="4">
         <v>78</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,12 +2719,12 @@
       <c r="C100" s="8">
         <v>46055</v>
       </c>
-      <c r="D100" s="24"/>
+      <c r="D100" s="25"/>
       <c r="E100" s="4">
         <v>78</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2749,12 +2737,12 @@
       <c r="C101" s="8">
         <v>46055</v>
       </c>
-      <c r="D101" s="25"/>
+      <c r="D101" s="26"/>
       <c r="E101" s="4">
         <v>78</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,19 +2750,19 @@
         <v>355</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C102" s="8">
         <v>46057</v>
       </c>
-      <c r="D102" s="32">
+      <c r="D102" s="27">
         <v>21</v>
       </c>
       <c r="E102" s="11">
         <v>21</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,17 +2770,17 @@
         <v>355</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C103" s="8">
         <v>46057</v>
       </c>
-      <c r="D103" s="32"/>
+      <c r="D103" s="27"/>
       <c r="E103" s="11">
         <v>21</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,17 +2788,17 @@
         <v>355</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C104" s="8">
         <v>46057</v>
       </c>
-      <c r="D104" s="32"/>
+      <c r="D104" s="27"/>
       <c r="E104" s="11">
         <v>21</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2818,17 +2806,17 @@
         <v>355</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C105" s="8">
         <v>46057</v>
       </c>
-      <c r="D105" s="32"/>
+      <c r="D105" s="27"/>
       <c r="E105" s="11">
         <v>2</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,17 +2824,17 @@
         <v>355</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C106" s="8">
         <v>46057</v>
       </c>
-      <c r="D106" s="32"/>
+      <c r="D106" s="27"/>
       <c r="E106" s="11">
         <v>2</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2854,17 +2842,17 @@
         <v>355</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C107" s="8">
         <v>46057</v>
       </c>
-      <c r="D107" s="32"/>
+      <c r="D107" s="27"/>
       <c r="E107" s="11">
         <v>2</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,7 +2860,7 @@
         <v>356</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C108" s="8">
         <v>46058</v>
@@ -2884,7 +2872,7 @@
         <v>10</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2892,17 +2880,17 @@
         <v>356</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C109" s="8">
         <v>46058</v>
       </c>
-      <c r="D109" s="26"/>
+      <c r="D109" s="22"/>
       <c r="E109" s="4">
         <v>10</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,17 +2898,17 @@
         <v>356</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C110" s="8">
         <v>46058</v>
       </c>
-      <c r="D110" s="22"/>
+      <c r="D110" s="23"/>
       <c r="E110" s="4">
         <v>10</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2940,7 +2928,7 @@
         <v>35</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2953,12 +2941,12 @@
       <c r="C112" s="8">
         <v>46058</v>
       </c>
-      <c r="D112" s="26"/>
+      <c r="D112" s="22"/>
       <c r="E112" s="4">
         <v>35</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,12 +2959,12 @@
       <c r="C113" s="8">
         <v>46058</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="22"/>
       <c r="E113" s="4">
         <v>35</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,12 +2977,12 @@
       <c r="C114" s="8">
         <v>46058</v>
       </c>
-      <c r="D114" s="26"/>
+      <c r="D114" s="22"/>
       <c r="E114" s="4">
         <v>35</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3007,12 +2995,12 @@
       <c r="C115" s="8">
         <v>46058</v>
       </c>
-      <c r="D115" s="26"/>
+      <c r="D115" s="22"/>
       <c r="E115" s="4">
         <v>35</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3025,12 +3013,12 @@
       <c r="C116" s="8">
         <v>46058</v>
       </c>
-      <c r="D116" s="26"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="4">
         <v>35</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3043,12 +3031,12 @@
       <c r="C117" s="8">
         <v>46058</v>
       </c>
-      <c r="D117" s="26"/>
+      <c r="D117" s="22"/>
       <c r="E117" s="4">
         <v>35</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3061,12 +3049,12 @@
       <c r="C118" s="8">
         <v>46058</v>
       </c>
-      <c r="D118" s="26"/>
+      <c r="D118" s="22"/>
       <c r="E118" s="4">
         <v>35</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,12 +3067,12 @@
       <c r="C119" s="8">
         <v>46058</v>
       </c>
-      <c r="D119" s="26"/>
+      <c r="D119" s="22"/>
       <c r="E119" s="4">
         <v>35</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,10 +3085,10 @@
       <c r="C120" s="8">
         <v>46058</v>
       </c>
-      <c r="D120" s="22"/>
+      <c r="D120" s="23"/>
       <c r="E120" s="4"/>
       <c r="F120" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3108,7 +3096,7 @@
         <v>358</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C121" s="8">
         <v>46058</v>
@@ -3120,7 +3108,7 @@
         <v>12</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3128,17 +3116,17 @@
         <v>358</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C122" s="8">
         <v>46058</v>
       </c>
-      <c r="D122" s="26"/>
+      <c r="D122" s="22"/>
       <c r="E122" s="4">
         <v>12</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3146,17 +3134,17 @@
         <v>358</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C123" s="8">
         <v>46058</v>
       </c>
-      <c r="D123" s="26"/>
+      <c r="D123" s="22"/>
       <c r="E123" s="4">
         <v>12</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3164,17 +3152,17 @@
         <v>358</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C124" s="8">
         <v>46058</v>
       </c>
-      <c r="D124" s="26"/>
+      <c r="D124" s="22"/>
       <c r="E124" s="4">
         <v>12</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,17 +3170,17 @@
         <v>358</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C125" s="8">
         <v>46058</v>
       </c>
-      <c r="D125" s="22"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="4">
         <v>12</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3200,19 +3188,19 @@
         <v>359</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C126" s="8">
         <v>46055</v>
       </c>
-      <c r="D126" s="23">
+      <c r="D126" s="24">
         <v>11</v>
       </c>
       <c r="E126" s="4">
         <v>11</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,17 +3208,17 @@
         <v>359</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C127" s="8">
         <v>46055</v>
       </c>
-      <c r="D127" s="25"/>
+      <c r="D127" s="26"/>
       <c r="E127" s="4">
         <v>2</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3238,7 +3226,7 @@
         <v>360</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C128" s="8">
         <v>46059</v>
@@ -3250,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3258,17 +3246,17 @@
         <v>360</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C129" s="8">
         <v>46059</v>
       </c>
-      <c r="D129" s="26"/>
+      <c r="D129" s="22"/>
       <c r="E129" s="4">
         <v>4</v>
       </c>
       <c r="F129" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3276,17 +3264,17 @@
         <v>360</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C130" s="8">
         <v>46059</v>
       </c>
-      <c r="D130" s="26"/>
+      <c r="D130" s="22"/>
       <c r="E130" s="4">
         <v>4</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,17 +3282,17 @@
         <v>360</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C131" s="8">
         <v>46059</v>
       </c>
-      <c r="D131" s="22"/>
+      <c r="D131" s="23"/>
       <c r="E131" s="4">
         <v>4</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3312,7 +3300,7 @@
         <v>361</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C132" s="8">
         <v>46059</v>
@@ -3324,7 +3312,7 @@
         <v>20</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3332,17 +3320,17 @@
         <v>361</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C133" s="8">
         <v>46059</v>
       </c>
-      <c r="D133" s="26"/>
+      <c r="D133" s="22"/>
       <c r="E133" s="4">
         <v>20</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,17 +3338,17 @@
         <v>361</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C134" s="8">
         <v>46059</v>
       </c>
-      <c r="D134" s="26"/>
+      <c r="D134" s="22"/>
       <c r="E134" s="4">
         <v>20</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3368,17 +3356,17 @@
         <v>361</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C135" s="8">
         <v>46059</v>
       </c>
-      <c r="D135" s="22"/>
+      <c r="D135" s="23"/>
       <c r="E135" s="4">
         <v>20</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3398,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3411,12 +3399,12 @@
       <c r="C137" s="8">
         <v>46065</v>
       </c>
-      <c r="D137" s="26"/>
+      <c r="D137" s="22"/>
       <c r="E137" s="4">
         <v>16</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,12 +3417,12 @@
       <c r="C138" s="8">
         <v>46065</v>
       </c>
-      <c r="D138" s="26"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="4">
         <v>16</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3447,12 +3435,12 @@
       <c r="C139" s="8">
         <v>46065</v>
       </c>
-      <c r="D139" s="26"/>
+      <c r="D139" s="22"/>
       <c r="E139" s="4">
         <v>16</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3465,12 +3453,12 @@
       <c r="C140" s="8">
         <v>46065</v>
       </c>
-      <c r="D140" s="26"/>
+      <c r="D140" s="22"/>
       <c r="E140" s="4">
         <v>16</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3483,12 +3471,12 @@
       <c r="C141" s="8">
         <v>46065</v>
       </c>
-      <c r="D141" s="26"/>
+      <c r="D141" s="22"/>
       <c r="E141" s="4">
         <v>15</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3501,12 +3489,12 @@
       <c r="C142" s="8">
         <v>46065</v>
       </c>
-      <c r="D142" s="26"/>
+      <c r="D142" s="22"/>
       <c r="E142" s="4">
         <v>16</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,12 +3507,12 @@
       <c r="C143" s="8">
         <v>46065</v>
       </c>
-      <c r="D143" s="26"/>
+      <c r="D143" s="22"/>
       <c r="E143" s="4">
         <v>15</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,12 +3525,12 @@
       <c r="C144" s="8">
         <v>46065</v>
       </c>
-      <c r="D144" s="26"/>
+      <c r="D144" s="22"/>
       <c r="E144" s="4">
         <v>16</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,12 +3543,12 @@
       <c r="C145" s="8">
         <v>46065</v>
       </c>
-      <c r="D145" s="22"/>
+      <c r="D145" s="23"/>
       <c r="E145" s="4">
         <v>16</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,19 +3556,19 @@
         <v>363</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C146" s="8">
         <v>46066</v>
       </c>
-      <c r="D146" s="30">
+      <c r="D146" s="31">
         <v>5</v>
       </c>
       <c r="E146" s="4">
         <v>5</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3588,17 +3576,17 @@
         <v>363</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C147" s="8">
         <v>46066</v>
       </c>
-      <c r="D147" s="31"/>
+      <c r="D147" s="32"/>
       <c r="E147" s="4">
         <v>5</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3606,7 +3594,7 @@
         <v>364</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C148" s="8">
         <v>46069</v>
@@ -3618,7 +3606,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3638,7 +3626,7 @@
         <v>21</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,12 +3639,12 @@
       <c r="C150" s="8">
         <v>46068</v>
       </c>
-      <c r="D150" s="26"/>
+      <c r="D150" s="22"/>
       <c r="E150" s="4">
         <v>21</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3669,12 +3657,12 @@
       <c r="C151" s="8">
         <v>46068</v>
       </c>
-      <c r="D151" s="26"/>
+      <c r="D151" s="22"/>
       <c r="E151" s="4">
         <v>21</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,12 +3675,12 @@
       <c r="C152" s="8">
         <v>46068</v>
       </c>
-      <c r="D152" s="26"/>
+      <c r="D152" s="22"/>
       <c r="E152" s="4">
         <v>21</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3705,12 +3693,12 @@
       <c r="C153" s="8">
         <v>46068</v>
       </c>
-      <c r="D153" s="26"/>
+      <c r="D153" s="22"/>
       <c r="E153" s="4">
         <v>21</v>
       </c>
       <c r="F153" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,12 +3711,12 @@
       <c r="C154" s="8">
         <v>46068</v>
       </c>
-      <c r="D154" s="26"/>
+      <c r="D154" s="22"/>
       <c r="E154" s="4">
         <v>21</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3741,12 +3729,12 @@
       <c r="C155" s="8">
         <v>46068</v>
       </c>
-      <c r="D155" s="26"/>
+      <c r="D155" s="22"/>
       <c r="E155" s="4">
         <v>21</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3759,12 +3747,12 @@
       <c r="C156" s="8">
         <v>46068</v>
       </c>
-      <c r="D156" s="26"/>
+      <c r="D156" s="22"/>
       <c r="E156" s="4">
         <v>21</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,12 +3765,12 @@
       <c r="C157" s="8">
         <v>46068</v>
       </c>
-      <c r="D157" s="22"/>
+      <c r="D157" s="23"/>
       <c r="E157" s="4">
         <v>21</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,14 +3783,14 @@
       <c r="C158" s="8">
         <v>46068</v>
       </c>
-      <c r="D158" s="23">
+      <c r="D158" s="24">
         <v>13</v>
       </c>
       <c r="E158" s="4">
         <v>13</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,12 +3803,12 @@
       <c r="C159" s="8">
         <v>46068</v>
       </c>
-      <c r="D159" s="25"/>
+      <c r="D159" s="26"/>
       <c r="E159" s="4">
         <v>13</v>
       </c>
       <c r="F159" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3840,7 +3828,7 @@
         <v>24</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3853,12 +3841,12 @@
       <c r="C161" s="8">
         <v>46069</v>
       </c>
-      <c r="D161" s="26"/>
+      <c r="D161" s="22"/>
       <c r="E161" s="4">
         <v>24</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,12 +3859,12 @@
       <c r="C162" s="8">
         <v>46069</v>
       </c>
-      <c r="D162" s="26"/>
+      <c r="D162" s="22"/>
       <c r="E162" s="4">
         <v>24</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3889,12 +3877,12 @@
       <c r="C163" s="8">
         <v>46069</v>
       </c>
-      <c r="D163" s="26"/>
+      <c r="D163" s="22"/>
       <c r="E163" s="4">
         <v>24</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3907,12 +3895,12 @@
       <c r="C164" s="8">
         <v>46069</v>
       </c>
-      <c r="D164" s="26"/>
+      <c r="D164" s="22"/>
       <c r="E164" s="4">
         <v>24</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3925,12 +3913,12 @@
       <c r="C165" s="8">
         <v>46069</v>
       </c>
-      <c r="D165" s="22"/>
+      <c r="D165" s="23"/>
       <c r="E165" s="4">
         <v>24</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3943,14 +3931,14 @@
       <c r="C166" s="19">
         <v>46069</v>
       </c>
-      <c r="D166" s="27">
+      <c r="D166" s="28">
         <v>9</v>
       </c>
       <c r="E166" s="17">
         <v>9</v>
       </c>
       <c r="F166" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,12 +3951,12 @@
       <c r="C167" s="19">
         <v>46069</v>
       </c>
-      <c r="D167" s="28"/>
+      <c r="D167" s="29"/>
       <c r="E167" s="17">
         <v>9</v>
       </c>
       <c r="F167" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3981,12 +3969,12 @@
       <c r="C168" s="19">
         <v>46069</v>
       </c>
-      <c r="D168" s="29"/>
+      <c r="D168" s="30"/>
       <c r="E168" s="17">
         <v>9</v>
       </c>
       <c r="F168" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,7 +3982,7 @@
         <v>369</v>
       </c>
       <c r="B169" s="18" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C169" s="19">
         <v>46069</v>
@@ -4006,7 +3994,7 @@
         <v>4</v>
       </c>
       <c r="F169" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4014,7 +4002,7 @@
         <v>370</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C170" s="8">
         <v>46069</v>
@@ -4026,7 +4014,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,17 +4022,17 @@
         <v>370</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C171" s="8">
         <v>46069</v>
       </c>
-      <c r="D171" s="26"/>
+      <c r="D171" s="22"/>
       <c r="E171" s="4">
         <v>3</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4052,17 +4040,17 @@
         <v>370</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C172" s="8">
         <v>46069</v>
       </c>
-      <c r="D172" s="26"/>
+      <c r="D172" s="22"/>
       <c r="E172" s="4">
         <v>1</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4070,17 +4058,17 @@
         <v>370</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C173" s="8">
         <v>46069</v>
       </c>
-      <c r="D173" s="22"/>
+      <c r="D173" s="23"/>
       <c r="E173" s="4">
         <v>1</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4088,7 +4076,7 @@
         <v>371</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C174" s="8">
         <v>46070</v>
@@ -4100,7 +4088,7 @@
         <v>10</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,17 +4096,17 @@
         <v>371</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C175" s="8">
         <v>46070</v>
       </c>
-      <c r="D175" s="26"/>
+      <c r="D175" s="22"/>
       <c r="E175" s="4">
         <v>10</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4126,17 +4114,17 @@
         <v>371</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C176" s="8">
         <v>46070</v>
       </c>
-      <c r="D176" s="22"/>
+      <c r="D176" s="23"/>
       <c r="E176" s="4">
         <v>10</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4144,7 +4132,7 @@
         <v>372</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C177" s="8">
         <v>46073</v>
@@ -4156,7 +4144,7 @@
         <v>5</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4164,17 +4152,17 @@
         <v>372</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C178" s="8">
         <v>46073</v>
       </c>
-      <c r="D178" s="26"/>
+      <c r="D178" s="22"/>
       <c r="E178" s="4">
         <v>5</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4182,17 +4170,17 @@
         <v>372</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C179" s="8">
         <v>46073</v>
       </c>
-      <c r="D179" s="22"/>
+      <c r="D179" s="23"/>
       <c r="E179" s="4">
         <v>5</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4212,7 +4200,7 @@
         <v>2</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,12 +4213,12 @@
       <c r="C181" s="8">
         <v>46073</v>
       </c>
-      <c r="D181" s="26"/>
+      <c r="D181" s="22"/>
       <c r="E181" s="4">
         <v>2</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4243,12 +4231,12 @@
       <c r="C182" s="8">
         <v>46073</v>
       </c>
-      <c r="D182" s="22"/>
+      <c r="D182" s="23"/>
       <c r="E182" s="4">
         <v>2</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4256,7 +4244,7 @@
         <v>374</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C183" s="8">
         <v>46073</v>
@@ -4268,7 +4256,7 @@
         <v>24</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4276,17 +4264,17 @@
         <v>374</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C184" s="8">
         <v>46073</v>
       </c>
-      <c r="D184" s="26"/>
+      <c r="D184" s="22"/>
       <c r="E184" s="4">
         <v>24</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4294,17 +4282,17 @@
         <v>374</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C185" s="8">
         <v>46073</v>
       </c>
-      <c r="D185" s="22"/>
+      <c r="D185" s="23"/>
       <c r="E185" s="4">
         <v>24</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4312,7 +4300,7 @@
         <v>375</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C186" s="8">
         <v>46073</v>
@@ -4324,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G186" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4335,17 +4323,17 @@
         <v>375</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C187" s="8">
         <v>46073</v>
       </c>
-      <c r="D187" s="26"/>
+      <c r="D187" s="22"/>
       <c r="E187" s="4">
         <v>5</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4353,17 +4341,17 @@
         <v>375</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C188" s="8">
         <v>46073</v>
       </c>
-      <c r="D188" s="26"/>
+      <c r="D188" s="22"/>
       <c r="E188" s="4">
         <v>6</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,17 +4359,17 @@
         <v>375</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C189" s="8">
         <v>46073</v>
       </c>
-      <c r="D189" s="26"/>
+      <c r="D189" s="22"/>
       <c r="E189" s="4">
         <v>6</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -4389,17 +4377,17 @@
         <v>375</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C190" s="8">
         <v>46073</v>
       </c>
-      <c r="D190" s="26"/>
+      <c r="D190" s="22"/>
       <c r="E190" s="4">
         <v>6</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,17 +4395,17 @@
         <v>375</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C191" s="8">
         <v>46073</v>
       </c>
-      <c r="D191" s="22"/>
+      <c r="D191" s="23"/>
       <c r="E191" s="4">
         <v>6</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -4437,7 +4425,7 @@
         <v>24</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4457,7 +4445,7 @@
         <v>22</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4470,12 +4458,12 @@
       <c r="C194" s="8">
         <v>46076</v>
       </c>
-      <c r="D194" s="22"/>
+      <c r="D194" s="23"/>
       <c r="E194" s="4">
         <v>22</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4483,7 +4471,7 @@
         <v>378</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C195" s="8">
         <v>46077</v>
@@ -4495,7 +4483,7 @@
         <v>3</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4503,17 +4491,17 @@
         <v>378</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C196" s="8">
         <v>46077</v>
       </c>
-      <c r="D196" s="26"/>
+      <c r="D196" s="22"/>
       <c r="E196" s="4">
         <v>1</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4521,17 +4509,17 @@
         <v>378</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C197" s="8">
         <v>46077</v>
       </c>
-      <c r="D197" s="26"/>
+      <c r="D197" s="22"/>
       <c r="E197" s="4">
         <v>1</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4539,17 +4527,17 @@
         <v>378</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C198" s="8">
         <v>46077</v>
       </c>
-      <c r="D198" s="26"/>
+      <c r="D198" s="22"/>
       <c r="E198" s="4">
         <v>1</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4557,17 +4545,17 @@
         <v>378</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C199" s="8">
         <v>46077</v>
       </c>
-      <c r="D199" s="22"/>
+      <c r="D199" s="23"/>
       <c r="E199" s="4">
         <v>1</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,7 +4563,7 @@
         <v>379</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C200" s="8">
         <v>46076</v>
@@ -4587,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4595,17 +4583,17 @@
         <v>379</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C201" s="8">
         <v>46076</v>
       </c>
-      <c r="D201" s="22"/>
+      <c r="D201" s="23"/>
       <c r="E201" s="4">
         <v>1</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -7881,35 +7869,8 @@
       <c r="F610" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G173"/>
+  <autoFilter ref="A1:G201"/>
   <mergeCells count="43">
-    <mergeCell ref="D183:D185"/>
-    <mergeCell ref="D186:D191"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D91"/>
-    <mergeCell ref="D102:D107"/>
-    <mergeCell ref="D177:D179"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="D174:D176"/>
-    <mergeCell ref="D72:D74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="D180:D182"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="D44:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D54:D58"/>
     <mergeCell ref="D200:D201"/>
     <mergeCell ref="D59:D61"/>
     <mergeCell ref="D108:D110"/>
@@ -7926,6 +7887,33 @@
     <mergeCell ref="D111:D120"/>
     <mergeCell ref="D121:D125"/>
     <mergeCell ref="D126:D127"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="D36:D41"/>
+    <mergeCell ref="D44:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D180:D182"/>
+    <mergeCell ref="D183:D185"/>
+    <mergeCell ref="D186:D191"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D91"/>
+    <mergeCell ref="D102:D107"/>
+    <mergeCell ref="D177:D179"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="D174:D176"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
